--- a/medicine/Sexualité et sexologie/Mélissa_(chanson)/Mélissa_(chanson).xlsx
+++ b/medicine/Sexualité et sexologie/Mélissa_(chanson)/Mélissa_(chanson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9lissa_(chanson)</t>
+          <t>Mélissa_(chanson)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mélissa est une chanson du chanteur français Julien Clerc, composée par Julien Clerc et écrite par David McNeil. Elle figure sur son album studio Aime-moi sorti en 1984, dont il est l'un des principaux singles avec La Fille aux bas nylon.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9lissa_(chanson)</t>
+          <t>Mélissa_(chanson)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Contexte et sortie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme pour This Melody (sur l'album No 7 en 1975), Julien Clerc a composé une musique aux influences caribéennes, étant lui-même d'origine guadeloupéenne du côté de sa mère[1].
-Les paroles évoquent une belle femme métisse, que des voyeurs tentent de prendre en photo lorsqu'elle est nue chez elle[2]. L'inspiration du parolier David McNeil vient d'un séjour à Ibiza durant lequel il aperçoit par hasard, de loin, la silhouette d'une femme prenant une douche[3]. Initialement, les paroles évoquaient des voyeurs peignant à la manière d'Henri Matisse, l'un des vers étant « imitez Matisse », devenu ensuite « matez ma métisse »[4]. À l'époque, c'est la chanson qui permet à David McNeil de gagner le plus d'argent grâce aux droits d'auteur[4]. Le single se vend en effet à plus de 600 000 exemplaires[5] et l'album Aime-moi à 615 000[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme pour This Melody (sur l'album No 7 en 1975), Julien Clerc a composé une musique aux influences caribéennes, étant lui-même d'origine guadeloupéenne du côté de sa mère.
+Les paroles évoquent une belle femme métisse, que des voyeurs tentent de prendre en photo lorsqu'elle est nue chez elle. L'inspiration du parolier David McNeil vient d'un séjour à Ibiza durant lequel il aperçoit par hasard, de loin, la silhouette d'une femme prenant une douche. Initialement, les paroles évoquaient des voyeurs peignant à la manière d'Henri Matisse, l'un des vers étant « imitez Matisse », devenu ensuite « matez ma métisse ». À l'époque, c'est la chanson qui permet à David McNeil de gagner le plus d'argent grâce aux droits d'auteur. Le single se vend en effet à plus de 600 000 exemplaires et l'album Aime-moi à 615 000.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9lissa_(chanson)</t>
+          <t>Mélissa_(chanson)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le succès de la chanson est tel que de nombreuses Françaises sont prénommées Mélissa les années suivantes[4].
-Les paroles sont parfois perçues comme étant sexistes[6] ou racistes[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le succès de la chanson est tel que de nombreuses Françaises sont prénommées Mélissa les années suivantes.
+Les paroles sont parfois perçues comme étant sexistes ou racistes.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9lissa_(chanson)</t>
+          <t>Mélissa_(chanson)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Victoires de la musique 1985 : nomination comme meilleure chanson de l'année</t>
         </is>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M%C3%A9lissa_(chanson)</t>
+          <t>Mélissa_(chanson)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,40 +620,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Classements et certifications</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Certifications</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>M%C3%A9lissa_(chanson)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/M%C3%A9lissa_(chanson)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>Reprises</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La chanson a été reprise par Medhy Custos et Sheryfa Luna sur l'album collectif Tropical Family en 2013.
 </t>
